--- a/biology/Zoologie/Conus_boeticus/Conus_boeticus.xlsx
+++ b/biology/Zoologie/Conus_boeticus/Conus_boeticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus boeticus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 15 mm et 40 mm. La spire striée est légèrement tuberculée. Le verticille est granuleux, strié.
-vers la base. La couleur de la coquille est blanche, marbrée de marron ou de chocolat, avec des rangées tournantes de taches de marron[1]. 
+vers la base. La couleur de la coquille est blanche, marbrée de marron ou de chocolat, avec des rangées tournantes de taches de marron. 
 </t>
         </is>
       </c>
@@ -544,11 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Indien au large du Mozambique, des Seychelles et du bassin des Mascareignes. et dans l'océan Pacifique au large du Japon, de l'Indonésie, des Fidji et de l'Australie.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est signalée au Mozambique et aux Seychelles. On la trouve également dans une zone allant du sud du Japon à l'Indonésie en passant par les îles Fidji. Elle est commune à Palawan et Sabah Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -574,14 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est signalée au Mozambique et aux Seychelles. On la trouve également dans une zone allant du sud du Japon à l'Indonésie en passant par les îles Fidji. Elle est commune à Palawan et Sabah Il n'y a pas de menaces majeures connues, elle est donc classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus boeticus a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[3],[4].
-Synonymes
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus boeticus a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans la publication intitulée « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Conus (Splinoconus) boeticus Reeve, 1844 · appellation alternative
 Conus cerinus Reeve, 1848 · non accepté
 Conus fultoni G. B. Sowerby III, 1887 · non accepté
@@ -593,8 +685,43 @@
 Leptoconus boeticus (Reeve, 1844) · non accepté
 Nitidoconus boeticus (Reeve, 1844) · non accepté
 Rolaniconus boeticus (Reeve, 1844) · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus boeticus dans les principales bases sont les suivants :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_boeticus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus boeticus dans les principales bases sont les suivants :
 AFD : Conus_(Splinoconus)_boeticus - BOLD : 344179 - CoL : XX2B - GBIF : 5795841 - iNaturalist : 431876 - IRMNG : 11001625 - TAXREF : 91991 - UICN : 192374 - 
 </t>
         </is>
